--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt10b</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt10b</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.059192</v>
+        <v>2.944484333333333</v>
       </c>
       <c r="H2">
-        <v>0.177576</v>
+        <v>8.833453</v>
       </c>
       <c r="I2">
-        <v>0.01919758596648423</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.01919758596648423</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N2">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q2">
-        <v>0.1511337102986667</v>
+        <v>1.786807316965333</v>
       </c>
       <c r="R2">
-        <v>1.360203392688</v>
+        <v>16.081265852688</v>
       </c>
       <c r="S2">
-        <v>0.00315808717667906</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="T2">
-        <v>0.00315808717667906</v>
+        <v>0.03392274820144286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.059192</v>
+        <v>2.944484333333333</v>
       </c>
       <c r="H3">
-        <v>0.177576</v>
+        <v>8.833453</v>
       </c>
       <c r="I3">
-        <v>0.01919758596648423</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01919758596648423</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P3">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q3">
-        <v>0.477008321104</v>
+        <v>23.72860400662867</v>
       </c>
       <c r="R3">
-        <v>4.293074889936</v>
+        <v>213.557436059658</v>
       </c>
       <c r="S3">
-        <v>0.009967556933994226</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="T3">
-        <v>0.00996755693399423</v>
+        <v>0.4504903529585388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.059192</v>
+        <v>2.944484333333333</v>
       </c>
       <c r="H4">
-        <v>0.177576</v>
+        <v>8.833453</v>
       </c>
       <c r="I4">
-        <v>0.01919758596648423</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.01919758596648423</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,400 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N4">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O4">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P4">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q4">
-        <v>0.2905794077386666</v>
+        <v>27.15742362346767</v>
       </c>
       <c r="R4">
-        <v>2.615214669648</v>
+        <v>244.416812611209</v>
       </c>
       <c r="S4">
-        <v>0.006071941855810939</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="T4">
-        <v>0.006071941855810941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.944484333333333</v>
-      </c>
-      <c r="H5">
-        <v>8.833452999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.9549768738365432</v>
-      </c>
-      <c r="J5">
-        <v>0.9549768738365431</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.553279333333334</v>
-      </c>
-      <c r="N5">
-        <v>7.659838000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.1645043904057808</v>
-      </c>
-      <c r="P5">
-        <v>0.1645043904057808</v>
-      </c>
-      <c r="Q5">
-        <v>7.518090995623778</v>
-      </c>
-      <c r="R5">
-        <v>67.66281896061399</v>
-      </c>
-      <c r="S5">
-        <v>0.1570978884820988</v>
-      </c>
-      <c r="T5">
-        <v>0.1570978884820987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.944484333333333</v>
-      </c>
-      <c r="H6">
-        <v>8.833452999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.9549768738365432</v>
-      </c>
-      <c r="J6">
-        <v>0.9549768738365431</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>8.058662</v>
-      </c>
-      <c r="N6">
-        <v>24.175986</v>
-      </c>
-      <c r="O6">
-        <v>0.5192088709172035</v>
-      </c>
-      <c r="P6">
-        <v>0.5192088709172036</v>
-      </c>
-      <c r="Q6">
-        <v>23.72860400662866</v>
-      </c>
-      <c r="R6">
-        <v>213.557436059658</v>
-      </c>
-      <c r="S6">
-        <v>0.4958324644167122</v>
-      </c>
-      <c r="T6">
-        <v>0.4958324644167123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.944484333333333</v>
-      </c>
-      <c r="H7">
-        <v>8.833452999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.9549768738365432</v>
-      </c>
-      <c r="J7">
-        <v>0.9549768738365431</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.909099333333333</v>
-      </c>
-      <c r="N7">
-        <v>14.727298</v>
-      </c>
-      <c r="O7">
-        <v>0.3162867386770156</v>
-      </c>
-      <c r="P7">
-        <v>0.3162867386770157</v>
-      </c>
-      <c r="Q7">
-        <v>14.45476607777711</v>
-      </c>
-      <c r="R7">
-        <v>130.092894699994</v>
-      </c>
-      <c r="S7">
-        <v>0.302046520937732</v>
-      </c>
-      <c r="T7">
-        <v>0.302046520937732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.079628</v>
-      </c>
-      <c r="H8">
-        <v>0.238884</v>
-      </c>
-      <c r="I8">
-        <v>0.02582554019697267</v>
-      </c>
-      <c r="J8">
-        <v>0.02582554019697266</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.553279333333334</v>
-      </c>
-      <c r="N8">
-        <v>7.659838000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.1645043904057808</v>
-      </c>
-      <c r="P8">
-        <v>0.1645043904057808</v>
-      </c>
-      <c r="Q8">
-        <v>0.2033125267546667</v>
-      </c>
-      <c r="R8">
-        <v>1.829812740792</v>
-      </c>
-      <c r="S8">
-        <v>0.004248414747002977</v>
-      </c>
-      <c r="T8">
-        <v>0.004248414747002977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.079628</v>
-      </c>
-      <c r="H9">
-        <v>0.238884</v>
-      </c>
-      <c r="I9">
-        <v>0.02582554019697267</v>
-      </c>
-      <c r="J9">
-        <v>0.02582554019697266</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.058662</v>
-      </c>
-      <c r="N9">
-        <v>24.175986</v>
-      </c>
-      <c r="O9">
-        <v>0.5192088709172035</v>
-      </c>
-      <c r="P9">
-        <v>0.5192088709172036</v>
-      </c>
-      <c r="Q9">
-        <v>0.6416951377360001</v>
-      </c>
-      <c r="R9">
-        <v>5.775256239624</v>
-      </c>
-      <c r="S9">
-        <v>0.01340884956649703</v>
-      </c>
-      <c r="T9">
-        <v>0.01340884956649703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.079628</v>
-      </c>
-      <c r="H10">
-        <v>0.238884</v>
-      </c>
-      <c r="I10">
-        <v>0.02582554019697267</v>
-      </c>
-      <c r="J10">
-        <v>0.02582554019697266</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.909099333333333</v>
-      </c>
-      <c r="N10">
-        <v>14.727298</v>
-      </c>
-      <c r="O10">
-        <v>0.3162867386770156</v>
-      </c>
-      <c r="P10">
-        <v>0.3162867386770157</v>
-      </c>
-      <c r="Q10">
-        <v>0.3909017617146667</v>
-      </c>
-      <c r="R10">
-        <v>3.518115855432</v>
-      </c>
-      <c r="S10">
-        <v>0.008168275883472657</v>
-      </c>
-      <c r="T10">
-        <v>0.008168275883472657</v>
+        <v>0.5155868988400183</v>
       </c>
     </row>
   </sheetData>
